--- a/excel/3. cosine similarity.xlsx
+++ b/excel/3. cosine similarity.xlsx
@@ -2892,7 +2892,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1">
@@ -5566,7 +5566,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6">
         <row r="1">
           <cell r="A1">
@@ -8240,7 +8240,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -47020,7 +47020,7 @@
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
